--- a/학습자료/단답형/객관식_국어_암기자료_2주차.xlsx
+++ b/학습자료/단답형/객관식_국어_암기자료_2주차.xlsx
@@ -451,8 +451,8 @@
           <t>㉠곡식이나 장작 따위의 더미를 세는 단위 한 [   ]는 스무 단이다
 장작 한 [   ]
 1. 가리
-2. 다스
-3. 뭇</t>
+2. 대
+3. 다섯째 손가락</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -465,14 +465,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 [   ], 담배 대여섯 [   ]
-1. 되
-2. 개비
-3. 뭇</t>
+1. 개비
+2. 첫째 손가락
+3. 두름</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 개비</t>
+          <t>1, 개비</t>
         </is>
       </c>
     </row>
@@ -481,8 +481,8 @@
         <is>
           <t>㉠오이나 가지 따위를 묶어 세는 단위 한 [   ]는 오이나 가지 오십 개를 이른다
 가지 두 [   ]
-1. 첫째 손가락
-2. 3 4
+1. 그루
+2. 여남은
 3. 거리</t>
         </is>
       </c>
@@ -497,14 +497,14 @@
         <is>
           <t>㉡탈놀음, 꼭두각시놀음, 굿 따위에서, 장(場)을 세는 단위 
 한 [   ] 놀다
-1. 넷째 손가락
-2. 리
-3. 거리</t>
+1. 거리
+2. 단
+3. 첫째 손가락</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3, 거리</t>
+          <t>1, 거리</t>
         </is>
       </c>
     </row>
@@ -514,8 +514,8 @@
           <t>㉠무게의 단위 한 [   ]은 한 근의 열 배로 375kg에 해당 한다
 감자 세 [   ]
 1. 관
-2. 땀
-3. 되지기</t>
+2. 다스
+3. 냥</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -529,14 +529,14 @@
         <is>
           <t>㉠식물, 특히 나무를 세는 단위 
 소나무 2천 [   ]
-1. 그루
-2. 가리
-3. 되들이</t>
+1. 되지기
+2. 그루
+3. 근</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 그루</t>
+          <t>2, 그루</t>
         </is>
       </c>
     </row>
@@ -546,8 +546,8 @@
           <t>㉡한 해에 같은 땅에 농사짓는 횟수를 세는 단위 
 두 [   ] 심는 논농사
 1. 그루
-2. 거리
-3. 1 2</t>
+2. 2 3
+3. 되</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -561,14 +561,14 @@
         <is>
           <t>㉠무게의 단위 한 [   ]은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고, 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다 
 쇠고기 한 [   ]
-1. 땀
-2. 근
-3. 2 3</t>
+1. 모
+2. 4 5
+3. 근</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 근</t>
+          <t>3, 근</t>
         </is>
       </c>
     </row>
@@ -577,14 +577,14 @@
         <is>
           <t>㉠[   ]이의 단위 한 [   ]은 여덟 자 또는 열 자로 약 24미터 또는 3미터에 해당한다
 천 [   ]
-1. 되지기
-2. 길
-3. 가리</t>
+1. 길
+2. 냥
+3. 1 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 길</t>
+          <t>1, 길</t>
         </is>
       </c>
     </row>
@@ -592,14 +592,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>㉡[   ]이의 단위 한 [   ]은 사람의 키 정도의 [   ]이이다 트럭에 실린 통나무는 굵기는 한 아름이 넘고 [   ]이는 열 [   ]이 넘었다
-1. 5 6
-2. 모
-3. 길</t>
+1. 길
+2. 4 5
+3. 가리</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, 길</t>
+          <t>1, 길</t>
         </is>
       </c>
     </row>
@@ -608,14 +608,14 @@
         <is>
           <t>㉠달걀 열 개를 묶어 세는 단위 
 달걀 한 [   ]
-1. 꾸러미
-2. 리
-3. 문</t>
+1. 다스
+2. 꾸러미
+3. 그루</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, 꾸러미</t>
+          <t>2, 꾸러미</t>
         </is>
       </c>
     </row>
@@ -625,8 +625,8 @@
           <t>㉠예전에, 엽전을 세던 단위 한 [   ]은 한 돈의 열 배이다 
 돈 천 [   ], 돈 만 [   ]을 꾸다
 1. 냥
-2. 마리
-3. 뭇</t>
+2. 꾸러미
+3. 마지기</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -640,14 +640,14 @@
         <is>
           <t>㉠납작한 물건을 세는 단위 흔히 돈이나 가마니, 멍석 따위를 셀 때 쓴다
 동전 한 [   ]
-1. 닢
-2. 개비
-3. 2 3 4</t>
+1. 셋째 손가락
+2. 닢
+3. 두름</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1, 닢</t>
+          <t>2, 닢</t>
         </is>
       </c>
     </row>
@@ -656,14 +656,14 @@
         <is>
           <t>㉠물건 열두 개를 묶어 세는 단위 ‘12개’, ‘타(打)’로 순화 
 연필 한 [   ]
-1. 넷째 손가락
-2. 다스
-3. 3 4</t>
+1. 관
+2. 첫째 손가락
+3. 다스</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 다스</t>
+          <t>3, 다스</t>
         </is>
       </c>
     </row>
@@ -672,14 +672,14 @@
         <is>
           <t>㉠짚, 땔나무, 채소 따위의 묶음을 세는 [   ]위 
 볏짚 한 [   ]
-1. 단
-2. 관
-3. 그루</t>
+1. 다스
+2. 둘째 손가락
+3. 단</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1, 단</t>
+          <t>3, 단</t>
         </is>
       </c>
     </row>
@@ -688,14 +688,14 @@
         <is>
           <t>㉠화살 따위와 같이 가늘고 긴 물건을 세는 단위 
 화살 세 [   ]
-1. 길
-2. 대
-3. 1 2</t>
+1. 대
+2. 단
+3. 냥</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 대</t>
+          <t>1, 대</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
         <is>
           <t>㉡이나 갈비를 세는 단위 
 삼촌은 교통사고로 갈비가 세 [   ]나 나갔다
-1. 다스
-2. 거리
-3. 대</t>
+1. 대
+2. 첫째 손가락
+3. 셋째 손가락</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3, 대</t>
+          <t>1, 대</t>
         </is>
       </c>
     </row>
@@ -719,15 +719,15 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
-담배 한 [   ] 먼저 채우고
-1. 2 3
-2. 대
-3. 단</t>
+담배 한 [   ] 먼저 채우고 나서 이야기합시다
+1. 냥
+2. 마지기
+3. 대</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, 대</t>
+          <t>3, 대</t>
         </is>
       </c>
     </row>
@@ -736,14 +736,14 @@
         <is>
           <t>㉣때리는 횟수를 세는 단위 
 회초리로 몇 [   ] 맞을래?
-1. 개비
-2. 대
-3. 되</t>
+1. 1 2
+2. 되지기
+3. 대</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, 대</t>
+          <t>3, 대</t>
         </is>
       </c>
     </row>
@@ -752,8 +752,8 @@
         <is>
           <t>㉤주사를 놓는 횟수를 세는 단위 
 엉덩이에 주사를 한 [   ] 맞다
-1. 마리
-2. 거리
+1. 냥
+2. 리
 3. 대</t>
         </is>
       </c>
@@ -769,14 +769,14 @@
           <t>㉠무게의 단위 귀금속이나 한약재 따위의 무게를 잴 때 쓴다 
 한 [   ]은 한 냥의 10분의 1, 한 푼의 열 배로 375 그램에 해당한다
 금 두 냥 서 [   ]
-1. 둘째 손가락
-2. 넷째 손가락
-3. 돈</t>
+1. 여남은
+2. 돈
+3. 마지기</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 돈</t>
+          <t>2, 돈</t>
         </is>
       </c>
     </row>
@@ -785,14 +785,14 @@
         <is>
           <t>㉠부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 쓴 다 한 [   ]는 한 말의 10분의 1, 한 홉의 열 배로 약 1)8리 터에 해당한다
 쌀 한 [   ]
-1. 되지기
-2. 되
-3. 1 2</t>
+1. 두름
+2. 길
+3. 되</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2, 되</t>
+          <t>3, 되</t>
         </is>
       </c>
     </row>
@@ -801,14 +801,14 @@
         <is>
           <t>㉠곡식이나 물, 술 따위를 되에 담아 그 분량을 세는 단위 
 한 [   ] 술병
-1. 되들이
-2. 관
-3. 냥</t>
+1. 닢
+2. 되들이
+3. 4 5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1, 되들이</t>
+          <t>2, 되들이</t>
         </is>
       </c>
     </row>
@@ -817,14 +817,14 @@
         <is>
           <t>㉠논, 밭의 넓이의 단위 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다 
 땅은 논 열 마지기와 밭 두 [   ]가 고작이었다
-1. 7 8
-2. 3 4
-3. 되지기</t>
+1. 되지기
+2. 다스
+3. 개비</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 되지기</t>
+          <t>1, 되지기</t>
         </is>
       </c>
     </row>
@@ -833,14 +833,14 @@
         <is>
           <t>㉠ 조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위 
 청어 한 [   ]
-1. 두름
-2. 꾸러미
-3. 문</t>
+1. 첫째 손가락
+2. 개비
+3. 두름</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1, 두름</t>
+          <t>3, 두름</t>
         </is>
       </c>
     </row>
@@ -850,8 +850,8 @@
           <t>㉡고사리 따위의 산나물을 열 모숨 정도로 엮은 것을 세는 단위
 고사리 한 [   ]
 1. 두름
-2. 뭇
-3. 단</t>
+2. 근
+3. 2 3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -865,14 +865,14 @@
         <is>
           <t>㉠실을 꿴 바늘로 한 번 뜬 자국을 세는 단위 
 바느질을 한 [   ] 한 [   ] 정성 들여 하다
-1. 단
-2. 땀
-3. 넷째 손가락</t>
+1. 땀
+2. 문
+3. 7 8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 땀</t>
+          <t>1, 땀</t>
         </is>
       </c>
     </row>
@@ -881,14 +881,14 @@
         <is>
           <t>㉠거[   ]의 단위 1[   ]는 약 0393km에 해당한다 
 예전에는 학교까지 오 [   ]쯤 걸어 다녔다
-1. 리
-2. 길
-3. 2 3 4</t>
+1. 첫째 손가락
+2. 7 8
+3. 리</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1, 리</t>
+          <t>3, 리</t>
         </is>
       </c>
     </row>
@@ -898,8 +898,8 @@
           <t>㉠짐승이나 물고기, 벌레 따위를 세는 단위 
 소 한 [   ]
 1. 마리
-2. 2 3
-3. 두름</t>
+2. 냥
+3. 여남은</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -913,14 +913,14 @@
         <is>
           <t>㉠논밭 넓이의 단위 지방마다 다르나 논은 약 150~300 평, 밭은 약 100평 정도이다
 논 다섯 [   ]
-1. 마지기
-2. 다스
-3. 꾸러미</t>
+1. 두름
+2. 개비
+3. 마지기</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1, 마지기</t>
+          <t>3, 마지기</t>
         </is>
       </c>
     </row>
@@ -929,14 +929,14 @@
         <is>
           <t>㉠두부나 묵 따위를 세는 단위 
 두부 한 [   ]
-1. 마리
-2. 2 3
-3. 모</t>
+1. 다섯째 손가락
+2. 모
+3. 길</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3, 모</t>
+          <t>2, 모</t>
         </is>
       </c>
     </row>
@@ -945,14 +945,14 @@
         <is>
           <t>㉠액체나 기체를 입 안에 한 번 머금는 분량을 세는 단위 
 물 한 [   ], 담배 몇 [   ]
-1. 모금
-2. 길
-3. 냥</t>
+1. 되
+2. 냥
+3. 모금</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1, 모금</t>
+          <t>3, 모금</t>
         </is>
       </c>
     </row>
@@ -961,14 +961,14 @@
         <is>
           <t>㉠길이의 단위 신발의 크기를 잴 때 쓴다 1[   ]은 약 24cm에 해당한다
 십 [   ] 반짜리 운동화
-1. 여남은
-2. 닢
-3. 문</t>
+1. 대
+2. 문
+3. 7 8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3, 문</t>
+          <t>2, 문</t>
         </is>
       </c>
     </row>
@@ -977,14 +977,14 @@
         <is>
           <t>㉠짚, 장작, 채소 따위의 작은 묶음을 세는 단위 
 땔감은 아예 말똥, 소똥을 말려 쓰고, 몇 [   ] 안 남은 조 짚은 마소를 먹였다
-1. 뭇
-2. 마리
-3. 문</t>
+1. 2 3
+2. 뭇
+3. 셋째 손가락</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1, 뭇</t>
+          <t>2, 뭇</t>
         </is>
       </c>
     </row>
@@ -992,9 +992,9 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>㉡볏단을 세는 단위
-1. 근
+1. 되지기
 2. 뭇
-3. 땀</t>
+3. 개비</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1008,14 +1008,14 @@
         <is>
           <t>㉢생선을 묶어 세는 단위 한 [   ]은 생선 열 마리를 이른다 
 삼치 다섯 [   ]
-1. 마리
-2. 닢
-3. 뭇</t>
+1. 뭇
+2. 모
+3. 문</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3, 뭇</t>
+          <t>1, 뭇</t>
         </is>
       </c>
     </row>
@@ -1023,9 +1023,9 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>㉣미역을 묶어 세는 단위 한 [   ]은 미역 열 장을 이른다
-1. 가리
+1. 단
 2. 뭇
-3. 넷째 손가락</t>
+3. 모금</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1038,14 +1038,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>하나둘, 한둘
-1. 1 2
-2. 돈
-3. 마리</t>
+1. 2 3 4
+2. 1 2
+3. 그루</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1, 1 2</t>
+          <t>2, 1 2</t>
         </is>
       </c>
     </row>
@@ -1053,14 +1053,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>두셋
-1. 7 8
-2. 2 3
-3. 대</t>
+1. 5 6
+2. 둘째 손가락
+3. 2 3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2, 2 3</t>
+          <t>3, 2 3</t>
         </is>
       </c>
     </row>
@@ -1068,14 +1068,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>서너
-1. 다섯째 손가락
-2. 3 4
-3. 두름</t>
+1. 여남은
+2. 1 2
+3. 3 4</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2, 3 4</t>
+          <t>3, 3 4</t>
         </is>
       </c>
     </row>
@@ -1084,8 +1084,8 @@
         <is>
           <t>네댓
 1. 4 5
-2. 되지기
-3. 1 2</t>
+2. 그루
+3. 꾸러미</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1098,9 +1098,9 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>네다섯
-1. 다스
+1. 다섯째 손가락
 2. 4 5
-3. 그루</t>
+3. 두름</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1113,8 +1113,8 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>예닐곱
-1. 다스
-2. 되들이
+1. 거리
+2. 돈
 3. 5 6</t>
         </is>
       </c>
@@ -1128,14 +1128,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>두서너
-1. 근
-2. 2 3 4
-3. 단</t>
+1. 2 3 4
+2. 닢
+3. 되지기</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2, 2 3 4</t>
+          <t>1, 2 3 4</t>
         </is>
       </c>
     </row>
@@ -1143,14 +1143,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>두서넛
-1. 마리
-2. 2 3 4
-3. 거리</t>
+1. 닢
+2. 여남은
+3. 2 3 4</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2, 2 3 4</t>
+          <t>3, 2 3 4</t>
         </is>
       </c>
     </row>
@@ -1159,8 +1159,8 @@
         <is>
           <t>너더댓
 1. 4 5
-2. 첫째 손가락
-3. 되들이</t>
+2. 냥
+3. 개비</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1173,8 +1173,8 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>네다섯
-1. 모
-2. 2 3
+1. 마리
+2. 되지기
 3. 4 5</t>
         </is>
       </c>
@@ -1188,14 +1188,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>대여섯
-1. 마리
-2. 길
-3. 5 6</t>
+1. 5 6
+2. 문
+3. 두름</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3, 5 6</t>
+          <t>1, 5 6</t>
         </is>
       </c>
     </row>
@@ -1203,9 +1203,9 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>대엿
-1. 문
+1. 둘째 손가락
 2. 5 6
-3. 첫째 손가락</t>
+3. 모금</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1218,14 +1218,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>일여덟
-1. 마지기
-2. 7 8
-3. 되</t>
+1. 7 8
+2. 셋째 손가락
+3. 둘째 손가락</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2, 7 8</t>
+          <t>1, 7 8</t>
         </is>
       </c>
     </row>
@@ -1233,14 +1233,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>열이 조금 넘는 수
-1. 개비
-2. 여남은
-3. 땀</t>
+1. 여남은
+2. 되지기
+3. 셋째 손가락</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2, 여남은</t>
+          <t>1, 여남은</t>
         </is>
       </c>
     </row>
@@ -1248,14 +1248,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>엄지(손가락)
-1. 그루
-2. 되들이
-3. 첫째 손가락</t>
+1. 되들이
+2. 첫째 손가락
+3. 둘째 손가락</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3, 첫째 손가락</t>
+          <t>2, 첫째 손가락</t>
         </is>
       </c>
     </row>
@@ -1264,8 +1264,8 @@
         <is>
           <t>무지(拇指)
 1. 첫째 손가락
-2. 7 8
-3. 땀</t>
+2. 문
+3. 리</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1278,8 +1278,8 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>대무지(大拇指)
-1. 단
-2. 닢
+1. 리
+2. 2 3
 3. 첫째 손가락</t>
         </is>
       </c>
@@ -1293,14 +1293,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>대지(大旨)
-1. 4 5
-2. 첫째 손가락
-3. 돈</t>
+1. 다섯째 손가락
+2. 관
+3. 첫째 손가락</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2, 첫째 손가락</t>
+          <t>3, 첫째 손가락</t>
         </is>
       </c>
     </row>
@@ -1308,9 +1308,9 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>거지(巨指)
-1. 관
+1. 단
 2. 첫째 손가락
-3. 2 3</t>
+3. 두름</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1324,13 +1324,13 @@
         <is>
           <t>벽지(擘指)
 1. 3 4
-2. 둘째 손가락
-3. 첫째 손가락</t>
+2. 첫째 손가락
+3. 땀</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3, 첫째 손가락</t>
+          <t>2, 첫째 손가락</t>
         </is>
       </c>
     </row>
@@ -1338,14 +1338,14 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>검지
-1. 둘째 손가락
-2. 거리
-3. 근</t>
+1. 모
+2. 둘째 손가락
+3. 2 3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1, 둘째 손가락</t>
+          <t>2, 둘째 손가락</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <is>
           <t>집게손가락
 1. 둘째 손가락
-2. 2 3 4
+2. 여남은
 3. 근</t>
         </is>
       </c>
@@ -1368,14 +1368,14 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>식지(食指)
-1. 다섯째 손가락
-2. 뭇
-3. 둘째 손가락</t>
+1. 둘째 손가락
+2. 첫째 손가락
+3. 문</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3, 둘째 손가락</t>
+          <t>1, 둘째 손가락</t>
         </is>
       </c>
     </row>
@@ -1383,14 +1383,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>염지(鹽指)
-1. 가리
-2. 되지기
-3. 둘째 손가락</t>
+1. 둘째 손가락
+2. 다섯째 손가락
+3. 두름</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3, 둘째 손가락</t>
+          <t>1, 둘째 손가락</t>
         </is>
       </c>
     </row>
@@ -1398,14 +1398,14 @@
       <c r="A63" t="inlineStr">
         <is>
           <t>인지(人指)
-1. 둘째 손가락
-2. 길
-3. 단</t>
+1. 마지기
+2. 둘째 손가락
+3. 냥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1, 둘째 손가락</t>
+          <t>2, 둘째 손가락</t>
         </is>
       </c>
     </row>
@@ -1413,14 +1413,14 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>가운뎃손가락
-1. 마지기
-2. 관
-3. 셋째 손가락</t>
+1. 셋째 손가락
+2. 5 6
+3. 다섯째 손가락</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3, 셋째 손가락</t>
+          <t>1, 셋째 손가락</t>
         </is>
       </c>
     </row>
@@ -1428,14 +1428,14 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>장지(長指)
-1. 셋째 손가락
-2. 리
-3. 관</t>
+1. 땀
+2. 돈
+3. 셋째 손가락</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1, 셋째 손가락</t>
+          <t>3, 셋째 손가락</t>
         </is>
       </c>
     </row>
@@ -1443,14 +1443,14 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>중지(中指)
-1. 돈
-2. 리
-3. 셋째 손가락</t>
+1. 단
+2. 셋째 손가락
+3. 되들이</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3, 셋째 손가락</t>
+          <t>2, 셋째 손가락</t>
         </is>
       </c>
     </row>
@@ -1458,14 +1458,14 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>장짓가락
-1. 1 2
-2. 셋째 손가락
-3. 돈</t>
+1. 셋째 손가락
+2. 1 2
+3. 넷째 손가락</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2, 셋째 손가락</t>
+          <t>1, 셋째 손가락</t>
         </is>
       </c>
     </row>
@@ -1473,14 +1473,14 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>상지(上指)
-1. 거리
-2. 7 8
-3. 셋째 손가락</t>
+1. 돈
+2. 셋째 손가락
+3. 뭇</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3, 셋째 손가락</t>
+          <t>2, 셋째 손가락</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1488,14 @@
       <c r="A69" t="inlineStr">
         <is>
           <t>약지(藥指)
-1. 다섯째 손가락
-2. 꾸러미
-3. 넷째 손가락</t>
+1. 꾸러미
+2. 넷째 손가락
+3. 되</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3, 넷째 손가락</t>
+          <t>2, 넷째 손가락</t>
         </is>
       </c>
     </row>
@@ -1503,9 +1503,9 @@
       <c r="A70" t="inlineStr">
         <is>
           <t>약손가락
-1. 근
+1. 5 6
 2. 넷째 손가락
-3. 개비</t>
+3. 3 4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1518,14 +1518,14 @@
       <c r="A71" t="inlineStr">
         <is>
           <t>무명지(無名指)
-1. 넷째 손가락
-2. 여남은
-3. 개비</t>
+1. 뭇
+2. 넷째 손가락
+3. 2 3 4</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1, 넷째 손가락</t>
+          <t>2, 넷째 손가락</t>
         </is>
       </c>
     </row>
@@ -1533,8 +1533,8 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>새끼손(가락)
-1. 닢
-2. 땀
+1. 모
+2. 돈
 3. 다섯째 손가락</t>
         </is>
       </c>
@@ -1548,9 +1548,9 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>소지(小指)
-1. 길
+1. 근
 2. 다섯째 손가락
-3. 뭇</t>
+3. 길</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1563,9 +1563,9 @@
       <c r="A74" t="inlineStr">
         <is>
           <t>계지(季指)
-1. 1 2
+1. 꾸러미
 2. 다섯째 손가락
-3. 대</t>
+3. 땀</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1578,14 +1578,14 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>수소지(手小指)
-1. 다섯째 손가락
-2. 2 3 4
-3. 그루</t>
+1. 개비
+2. 다섯째 손가락
+3. 3 4</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1, 다섯째 손가락</t>
+          <t>2, 다섯째 손가락</t>
         </is>
       </c>
     </row>
